--- a/biology/Botanique/Macrocystis/Macrocystis.xlsx
+++ b/biology/Botanique/Macrocystis/Macrocystis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macrocystis est un genre d'algues brunes de la famille des Laminariaceae.
 Les thalles atteignent les 45 mètres de longueur.
-Coyer et collaborateurs ont toutefois proposé que le genre Macrocystis est monospécifique (M. pyrifera) à la suite d'analyses génétiques montrant qu'il existe très peu de différences entre ces différentes espèces[2]. De plus, il a été démontré que les spécimens de ce genre peuvent présenter d'importantes différences morphologiques suivant les conditions environnementales[3].
+Coyer et collaborateurs ont toutefois proposé que le genre Macrocystis est monospécifique (M. pyrifera) à la suite d'analyses génétiques montrant qu'il existe très peu de différences entre ces différentes espèces. De plus, il a été démontré que les spécimens de ce genre peuvent présenter d'importantes différences morphologiques suivant les conditions environnementales.
 </t>
         </is>
       </c>
@@ -513,19 +525,21 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (25 août 2017)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (25 août 2017) :
 Macrocystis pyrifera (Linnaeus) C.Agardh (espèce type)
-Selon ITIS      (25 août 2017)[4] :
+Selon ITIS      (25 août 2017) :
 Macrocystis integrifolia Bory
 Macrocystis pyrifera (Linnaeus) Agardh
-Selon NCBI  (25 août 2017)[5] :
+Selon NCBI  (25 août 2017) :
 Macrocystis angustifolia
 Macrocystis integrifolia
 Macrocystis laevis
 Macrocystis pyrifera
-Selon World Register of Marine Species                               (25 août 2017)[6] :
+Selon World Register of Marine Species                               (25 août 2017) :
 Macrocystis pomifera Bory de Saint-Vincent, 1826
 Macrocystis pyrifera (Linnaeus) C.Agardh, 1820</t>
         </is>
